--- a/simulation_data/one_step_algorithm/1s_error_level_11_percent_water_1.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_11_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.03083012154968</v>
+        <v>89.94013185231799</v>
       </c>
       <c r="D2" t="n">
-        <v>1.301761645916854</v>
+        <v>1.173547961691862</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.10860518967891</v>
+        <v>89.20442746308237</v>
       </c>
       <c r="D3" t="n">
-        <v>1.411125255982886</v>
+        <v>1.489580114529556</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.17316537330913</v>
+        <v>88.11462241339689</v>
       </c>
       <c r="D4" t="n">
-        <v>1.377511866242672</v>
+        <v>1.475756174912448</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.00893679427355</v>
+        <v>86.97251074254305</v>
       </c>
       <c r="D5" t="n">
-        <v>1.317246192545283</v>
+        <v>1.51011676336067</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.0551539764194</v>
+        <v>86.00805167437558</v>
       </c>
       <c r="D6" t="n">
-        <v>1.416878889149749</v>
+        <v>1.372094346972523</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.03659364697805</v>
+        <v>84.86271035514966</v>
       </c>
       <c r="D7" t="n">
-        <v>1.415949328299819</v>
+        <v>1.322098417658126</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.04340969096991</v>
+        <v>83.94908345370392</v>
       </c>
       <c r="D8" t="n">
-        <v>1.355265488604557</v>
+        <v>1.463187193883255</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.12336779446109</v>
+        <v>83.10249820515783</v>
       </c>
       <c r="D9" t="n">
-        <v>1.403273887707103</v>
+        <v>1.535414700107038</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.70769232220184</v>
+        <v>81.90076424762792</v>
       </c>
       <c r="D10" t="n">
-        <v>1.404467242696006</v>
+        <v>1.41239454911464</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.94388744104373</v>
+        <v>80.94085967864667</v>
       </c>
       <c r="D11" t="n">
-        <v>1.448252064623608</v>
+        <v>1.27525552944271</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.95152280443057</v>
+        <v>79.80863533572675</v>
       </c>
       <c r="D12" t="n">
-        <v>1.547039995196022</v>
+        <v>1.399027762306073</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.87597115501286</v>
+        <v>79.09139452256295</v>
       </c>
       <c r="D13" t="n">
-        <v>1.493001011850589</v>
+        <v>1.327403870118482</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.10433432058836</v>
+        <v>78.16817245279199</v>
       </c>
       <c r="D14" t="n">
-        <v>1.423772260977667</v>
+        <v>1.490295065210394</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.96093582688714</v>
+        <v>77.10663116785244</v>
       </c>
       <c r="D15" t="n">
-        <v>1.484944402369961</v>
+        <v>1.265966061689887</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.08610699559516</v>
+        <v>76.00781021249573</v>
       </c>
       <c r="D16" t="n">
-        <v>1.463546652183976</v>
+        <v>1.387633080319982</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.10405737331152</v>
+        <v>75.34870167946269</v>
       </c>
       <c r="D17" t="n">
-        <v>1.261527402034122</v>
+        <v>3.297033151654865</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.68630431827197</v>
+        <v>74.21548472528004</v>
       </c>
       <c r="D18" t="n">
-        <v>1.301166959595866</v>
+        <v>1.307006676874882</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.94394590973906</v>
+        <v>73.08156922294353</v>
       </c>
       <c r="D19" t="n">
-        <v>1.394179757927787</v>
+        <v>1.401143685512791</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.09702273484916</v>
+        <v>72.1637606263797</v>
       </c>
       <c r="D20" t="n">
-        <v>1.297717175350563</v>
+        <v>1.446405152971721</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.18349095203313</v>
+        <v>71.21091051765457</v>
       </c>
       <c r="D21" t="n">
-        <v>1.309254002637915</v>
+        <v>1.473261189589877</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.30824125931575</v>
+        <v>70.19375049667505</v>
       </c>
       <c r="D22" t="n">
-        <v>1.375755822978163</v>
+        <v>1.529592421397491</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.86778876909776</v>
+        <v>68.94362364024694</v>
       </c>
       <c r="D23" t="n">
-        <v>1.542749029867751</v>
+        <v>1.274043895997382</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.91869328505973</v>
+        <v>68.09512645374659</v>
       </c>
       <c r="D24" t="n">
-        <v>1.475407386741226</v>
+        <v>1.280447347581038</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.96478443521829</v>
+        <v>67.06563200966325</v>
       </c>
       <c r="D25" t="n">
-        <v>1.398964610420749</v>
+        <v>1.337137951452662</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.90723259231568</v>
+        <v>65.7814066044663</v>
       </c>
       <c r="D26" t="n">
-        <v>1.397802360195084</v>
+        <v>1.40279786866893</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.04925552646677</v>
+        <v>64.95438498393727</v>
       </c>
       <c r="D27" t="n">
-        <v>1.315086532584642</v>
+        <v>1.390203991014251</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.97022749686491</v>
+        <v>64.52219468608503</v>
       </c>
       <c r="D28" t="n">
-        <v>1.380179902196532</v>
+        <v>3.724628586807925</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.12989225625343</v>
+        <v>62.96257957568986</v>
       </c>
       <c r="D29" t="n">
-        <v>1.395382994532299</v>
+        <v>1.429214728728213</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.52246386747305</v>
+        <v>62.13946279640318</v>
       </c>
       <c r="D30" t="n">
-        <v>1.198088159519988</v>
+        <v>1.501237770926144</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.01679855248715</v>
+        <v>60.9650482360714</v>
       </c>
       <c r="D31" t="n">
-        <v>1.421152788935141</v>
+        <v>1.295463713274477</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.97391390698718</v>
+        <v>60.35930593447632</v>
       </c>
       <c r="D32" t="n">
-        <v>1.217816682433863</v>
+        <v>1.304985905273593</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.91962228278111</v>
+        <v>58.96722917754436</v>
       </c>
       <c r="D33" t="n">
-        <v>1.443637125000908</v>
+        <v>1.575876277835149</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.85266333849882</v>
+        <v>58.13602552033706</v>
       </c>
       <c r="D34" t="n">
-        <v>1.364102616150879</v>
+        <v>1.177306650946587</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.12426030163852</v>
+        <v>56.85869668258795</v>
       </c>
       <c r="D35" t="n">
-        <v>1.389317909061166</v>
+        <v>1.421369677553947</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.85639901530732</v>
+        <v>56.2760413872131</v>
       </c>
       <c r="D36" t="n">
-        <v>1.329418964207224</v>
+        <v>1.374781145629612</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.94589180885924</v>
+        <v>54.86552710872132</v>
       </c>
       <c r="D37" t="n">
-        <v>1.502177272921227</v>
+        <v>1.554156135612557</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.05277808691442</v>
+        <v>54.04469308854128</v>
       </c>
       <c r="D38" t="n">
-        <v>1.1947959120087</v>
+        <v>1.407386645400768</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.44372466300161</v>
+        <v>53.02094112960909</v>
       </c>
       <c r="D39" t="n">
-        <v>1.256104386046644</v>
+        <v>1.264024055336744</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.11294021919312</v>
+        <v>52.04214843648739</v>
       </c>
       <c r="D40" t="n">
-        <v>1.225417402286765</v>
+        <v>1.233719642118781</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.07176699522841</v>
+        <v>51.13241260662441</v>
       </c>
       <c r="D41" t="n">
-        <v>1.184320611584632</v>
+        <v>1.35111738584655</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.10328276893942</v>
+        <v>50.44473785555157</v>
       </c>
       <c r="D42" t="n">
-        <v>1.404018297194799</v>
+        <v>4.277270710679541</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.74090227351799</v>
+        <v>48.82260672393458</v>
       </c>
       <c r="D43" t="n">
-        <v>1.533980466780106</v>
+        <v>1.46366620122962</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.87990531545895</v>
+        <v>48.10337806202467</v>
       </c>
       <c r="D44" t="n">
-        <v>1.434996093048694</v>
+        <v>1.317576436742378</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.71920402562014</v>
+        <v>47.05877711275812</v>
       </c>
       <c r="D45" t="n">
-        <v>1.44947405482108</v>
+        <v>1.255820035937185</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.02544550947955</v>
+        <v>46.02998420007654</v>
       </c>
       <c r="D46" t="n">
-        <v>1.352000025838788</v>
+        <v>1.471725331187371</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.04398686584961</v>
+        <v>44.93635507628306</v>
       </c>
       <c r="D47" t="n">
-        <v>1.288959472251945</v>
+        <v>1.473698651401895</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.69543236996174</v>
+        <v>44.02076373912184</v>
       </c>
       <c r="D48" t="n">
-        <v>1.244167011620648</v>
+        <v>1.266743118156453</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.88292616967259</v>
+        <v>43.11673854352343</v>
       </c>
       <c r="D49" t="n">
-        <v>1.478658128253911</v>
+        <v>1.341624603556205</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.9382929069112</v>
+        <v>41.96749099416675</v>
       </c>
       <c r="D50" t="n">
-        <v>1.450528831365477</v>
+        <v>1.280613918885808</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.88934789116204</v>
+        <v>41.00840165482232</v>
       </c>
       <c r="D51" t="n">
-        <v>1.469828126358167</v>
+        <v>1.534635146515891</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.08643683826249</v>
+        <v>39.91976582242237</v>
       </c>
       <c r="D52" t="n">
-        <v>1.386831160744166</v>
+        <v>1.498433313756585</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.92810989196119</v>
+        <v>38.92050025415956</v>
       </c>
       <c r="D53" t="n">
-        <v>1.381369710116114</v>
+        <v>1.233397279371748</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.17100950931219</v>
+        <v>37.93594799658506</v>
       </c>
       <c r="D54" t="n">
-        <v>1.335348026686097</v>
+        <v>1.364185042155807</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.15045219639136</v>
+        <v>37.07309011006634</v>
       </c>
       <c r="D55" t="n">
-        <v>1.367509951071184</v>
+        <v>1.261842094017285</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.80241577465895</v>
+        <v>36.0986638348136</v>
       </c>
       <c r="D56" t="n">
-        <v>1.30249607806206</v>
+        <v>1.242974666569501</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.99198348550124</v>
+        <v>34.95052500451451</v>
       </c>
       <c r="D57" t="n">
-        <v>1.381531378571123</v>
+        <v>1.340615001488929</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.84436494682279</v>
+        <v>34.01433389119045</v>
       </c>
       <c r="D58" t="n">
-        <v>1.27818940423658</v>
+        <v>1.336394941188718</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.02791950240116</v>
+        <v>32.95150974065381</v>
       </c>
       <c r="D59" t="n">
-        <v>1.171065600456151</v>
+        <v>1.328093679460794</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.11225230773538</v>
+        <v>32.08934120537886</v>
       </c>
       <c r="D60" t="n">
-        <v>1.272385563875708</v>
+        <v>1.260186636930803</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.07470782645469</v>
+        <v>31.07999881502507</v>
       </c>
       <c r="D61" t="n">
-        <v>1.358446606338388</v>
+        <v>1.479184543013404</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.03048039469145</v>
+        <v>30.13845984441298</v>
       </c>
       <c r="D62" t="n">
-        <v>1.435598604091389</v>
+        <v>1.271756321543405</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.87442757529073</v>
+        <v>28.95798770660194</v>
       </c>
       <c r="D63" t="n">
-        <v>1.110036343298497</v>
+        <v>1.132233541037111</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.96615086901148</v>
+        <v>28.00121334888094</v>
       </c>
       <c r="D64" t="n">
-        <v>1.495693507377334</v>
+        <v>1.25172463110354</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.66116560092544</v>
+        <v>27.06489424348111</v>
       </c>
       <c r="D65" t="n">
-        <v>1.561419296778082</v>
+        <v>1.180728114683749</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.96527753277837</v>
+        <v>25.98753176257501</v>
       </c>
       <c r="D66" t="n">
-        <v>1.315094196598335</v>
+        <v>1.24896743528708</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.15022155021411</v>
+        <v>25.06924445892198</v>
       </c>
       <c r="D67" t="n">
-        <v>1.277437762896867</v>
+        <v>1.319242856866155</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.06225276158292</v>
+        <v>24.18429190743164</v>
       </c>
       <c r="D68" t="n">
-        <v>1.325037485905738</v>
+        <v>1.137095132212982</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.07418293226449</v>
+        <v>23.20638640080768</v>
       </c>
       <c r="D69" t="n">
-        <v>1.441927319613595</v>
+        <v>1.318432721554746</v>
       </c>
     </row>
   </sheetData>
